--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Tnfsf13-Sdc2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Tnfsf13-Sdc2.xlsx
@@ -534,22 +534,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.7366783333333333</v>
+        <v>0.4678846666666667</v>
       </c>
       <c r="H2">
-        <v>2.210035</v>
+        <v>1.403654</v>
       </c>
       <c r="I2">
-        <v>0.09074305167129323</v>
+        <v>0.03878103110832688</v>
       </c>
       <c r="J2">
-        <v>0.09465722399429256</v>
+        <v>0.03913668944394218</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.511114</v>
+        <v>1.009860666666667</v>
       </c>
       <c r="N2">
-        <v>4.533342</v>
+        <v>3.029582</v>
       </c>
       <c r="O2">
-        <v>0.02241848840500565</v>
+        <v>0.01353413605720072</v>
       </c>
       <c r="P2">
-        <v>0.02483957450832654</v>
+        <v>0.01542521070970148</v>
       </c>
       <c r="Q2">
-        <v>1.113204942996667</v>
+        <v>0.4724983214031112</v>
       </c>
       <c r="R2">
-        <v>10.01884448697</v>
+        <v>4.252484892628</v>
       </c>
       <c r="S2">
-        <v>0.002034322051727716</v>
+        <v>0.0005248677514586297</v>
       </c>
       <c r="T2">
-        <v>0.002351245168157585</v>
+        <v>0.0006036916811529578</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,22 +596,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.7366783333333333</v>
+        <v>0.4678846666666667</v>
       </c>
       <c r="H3">
-        <v>2.210035</v>
+        <v>1.403654</v>
       </c>
       <c r="I3">
-        <v>0.09074305167129323</v>
+        <v>0.03878103110832688</v>
       </c>
       <c r="J3">
-        <v>0.09465722399429256</v>
+        <v>0.03913668944394218</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>138.461282</v>
       </c>
       <c r="O3">
-        <v>0.6847250097299556</v>
+        <v>0.6185519418990597</v>
       </c>
       <c r="P3">
-        <v>0.7586719313825014</v>
+        <v>0.704979911415303</v>
       </c>
       <c r="Q3">
-        <v>34.00047548498555</v>
+        <v>21.59463692493644</v>
       </c>
       <c r="R3">
-        <v>306.0042793648699</v>
+        <v>194.351732324428</v>
       </c>
       <c r="S3">
-        <v>0.06213403693855213</v>
+        <v>0.02398808210090344</v>
       </c>
       <c r="T3">
-        <v>0.071813778947056</v>
+        <v>0.02759057985727858</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,55 +655,55 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.7366783333333333</v>
+        <v>0.4678846666666667</v>
       </c>
       <c r="H4">
-        <v>2.210035</v>
+        <v>1.403654</v>
       </c>
       <c r="I4">
-        <v>0.09074305167129323</v>
+        <v>0.03878103110832688</v>
       </c>
       <c r="J4">
-        <v>0.09465722399429256</v>
+        <v>0.03913668944394218</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>19.7096195</v>
+        <v>0.009315666666666667</v>
       </c>
       <c r="N4">
-        <v>39.419239</v>
+        <v>0.027947</v>
       </c>
       <c r="O4">
-        <v>0.2924067120202865</v>
+        <v>0.0001248484115599408</v>
       </c>
       <c r="P4">
-        <v>0.2159901291810835</v>
+        <v>0.000142293017222847</v>
       </c>
       <c r="Q4">
-        <v>14.51964964389417</v>
+        <v>0.004358657593111111</v>
       </c>
       <c r="R4">
-        <v>87.11789786336499</v>
+        <v>0.039227918338</v>
       </c>
       <c r="S4">
-        <v>0.02653387737788981</v>
+        <v>4.841750132531262E-06</v>
       </c>
       <c r="T4">
-        <v>0.02044502603845</v>
+        <v>5.568877625092078E-06</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,55 +717,55 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>0.4678846666666667</v>
+      </c>
+      <c r="H5">
+        <v>1.403654</v>
+      </c>
+      <c r="I5">
+        <v>0.03878103110832688</v>
+      </c>
+      <c r="J5">
+        <v>0.03913668944394218</v>
+      </c>
+      <c r="K5">
         <v>2</v>
       </c>
-      <c r="F5">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G5">
-        <v>0.7366783333333333</v>
-      </c>
-      <c r="H5">
-        <v>2.210035</v>
-      </c>
-      <c r="I5">
-        <v>0.09074305167129323</v>
-      </c>
-      <c r="J5">
-        <v>0.09465722399429256</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.030318</v>
+        <v>27.4428835</v>
       </c>
       <c r="N5">
-        <v>0.09095399999999999</v>
+        <v>54.885767</v>
       </c>
       <c r="O5">
-        <v>0.0004497898447522563</v>
+        <v>0.3677890736321797</v>
       </c>
       <c r="P5">
-        <v>0.000498364928088446</v>
+        <v>0.2794525848577725</v>
       </c>
       <c r="Q5">
-        <v>0.02233461371</v>
+        <v>12.84010439876967</v>
       </c>
       <c r="R5">
-        <v>0.20101152339</v>
+        <v>77.04062639261799</v>
       </c>
       <c r="S5">
-        <v>4.081530312357696E-05</v>
+        <v>0.01426323950583229</v>
       </c>
       <c r="T5">
-        <v>4.717384062896754E-05</v>
+        <v>0.01093684902788554</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -794,10 +794,10 @@
         <v>0.45002</v>
       </c>
       <c r="I6">
-        <v>0.01847762054135585</v>
+        <v>0.01243343417919891</v>
       </c>
       <c r="J6">
-        <v>0.0192746467553281</v>
+        <v>0.01254746040232341</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.511114</v>
+        <v>1.009860666666667</v>
       </c>
       <c r="N6">
-        <v>4.533342</v>
+        <v>3.029582</v>
       </c>
       <c r="O6">
-        <v>0.02241848840500565</v>
+        <v>0.01353413605720072</v>
       </c>
       <c r="P6">
-        <v>0.02483957450832654</v>
+        <v>0.01542521070970148</v>
       </c>
       <c r="Q6">
-        <v>0.2266771740933333</v>
+        <v>0.1514858324044444</v>
       </c>
       <c r="R6">
-        <v>2.04009456684</v>
+        <v>1.36337249164</v>
       </c>
       <c r="S6">
-        <v>0.0004142403218584804</v>
+        <v>0.0001682757898395278</v>
       </c>
       <c r="T6">
-        <v>0.0004787740242006467</v>
+        <v>0.0001935472205774742</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>0.45002</v>
       </c>
       <c r="I7">
-        <v>0.01847762054135585</v>
+        <v>0.01243343417919891</v>
       </c>
       <c r="J7">
-        <v>0.0192746467553281</v>
+        <v>0.01254746040232341</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -874,10 +874,10 @@
         <v>138.461282</v>
       </c>
       <c r="O7">
-        <v>0.6847250097299556</v>
+        <v>0.6185519418990597</v>
       </c>
       <c r="P7">
-        <v>0.7586719313825014</v>
+        <v>0.704979911415303</v>
       </c>
       <c r="Q7">
         <v>6.923371791737776</v>
@@ -886,10 +886,10 @@
         <v>62.31034612563999</v>
       </c>
       <c r="S7">
-        <v>0.01265208890496631</v>
+        <v>0.007690724856017625</v>
       </c>
       <c r="T7">
-        <v>0.01462313348058023</v>
+        <v>0.008845707522916978</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,7 +903,7 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -918,40 +918,40 @@
         <v>0.45002</v>
       </c>
       <c r="I8">
-        <v>0.01847762054135585</v>
+        <v>0.01243343417919891</v>
       </c>
       <c r="J8">
-        <v>0.0192746467553281</v>
+        <v>0.01254746040232341</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>19.7096195</v>
+        <v>0.009315666666666667</v>
       </c>
       <c r="N8">
-        <v>39.419239</v>
+        <v>0.027947</v>
       </c>
       <c r="O8">
-        <v>0.2924067120202865</v>
+        <v>0.0001248484115599408</v>
       </c>
       <c r="P8">
-        <v>0.2159901291810835</v>
+        <v>0.000142293017222847</v>
       </c>
       <c r="Q8">
-        <v>2.956574322463333</v>
+        <v>0.001397412104444444</v>
       </c>
       <c r="R8">
-        <v>17.73944593478</v>
+        <v>0.01257670894</v>
       </c>
       <c r="S8">
-        <v>0.00540298026845637</v>
+        <v>1.55229450750806E-06</v>
       </c>
       <c r="T8">
-        <v>0.004163133442603067</v>
+        <v>1.785415999130795E-06</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,7 +965,7 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -980,40 +980,40 @@
         <v>0.45002</v>
       </c>
       <c r="I9">
-        <v>0.01847762054135585</v>
+        <v>0.01243343417919891</v>
       </c>
       <c r="J9">
-        <v>0.0192746467553281</v>
+        <v>0.01254746040232341</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.030318</v>
+        <v>27.4428835</v>
       </c>
       <c r="N9">
-        <v>0.09095399999999999</v>
+        <v>54.885767</v>
       </c>
       <c r="O9">
-        <v>0.0004497898447522563</v>
+        <v>0.3677890736321797</v>
       </c>
       <c r="P9">
-        <v>0.000498364928088446</v>
+        <v>0.2794525848577725</v>
       </c>
       <c r="Q9">
-        <v>0.004547902119999999</v>
+        <v>4.116615477556667</v>
       </c>
       <c r="R9">
-        <v>0.04093111907999999</v>
+        <v>24.69969286534</v>
       </c>
       <c r="S9">
-        <v>8.311046074687552E-06</v>
+        <v>0.004572881238834246</v>
       </c>
       <c r="T9">
-        <v>9.605807944149286E-06</v>
+        <v>0.003506420242829822</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.208283999999999</v>
+        <v>5.973387666666667</v>
       </c>
       <c r="H10">
-        <v>9.624851999999999</v>
+        <v>17.920163</v>
       </c>
       <c r="I10">
-        <v>0.3951921315112882</v>
+        <v>0.4951094776699161</v>
       </c>
       <c r="J10">
-        <v>0.4122386168888342</v>
+        <v>0.4996500947639684</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.511114</v>
+        <v>1.009860666666667</v>
       </c>
       <c r="N10">
-        <v>4.533342</v>
+        <v>3.029582</v>
       </c>
       <c r="O10">
-        <v>0.02241848840500565</v>
+        <v>0.01353413605720072</v>
       </c>
       <c r="P10">
-        <v>0.02483957450832654</v>
+        <v>0.01542521070970148</v>
       </c>
       <c r="Q10">
-        <v>4.848082868375999</v>
+        <v>6.032289251318446</v>
       </c>
       <c r="R10">
-        <v>43.632745815384</v>
+        <v>54.290603261866</v>
       </c>
       <c r="S10">
-        <v>0.008859610218035283</v>
+        <v>0.006700879033994227</v>
       </c>
       <c r="T10">
-        <v>0.01023983183941968</v>
+        <v>0.007707207992856524</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>3.208283999999999</v>
+        <v>5.973387666666667</v>
       </c>
       <c r="H11">
-        <v>9.624851999999999</v>
+        <v>17.920163</v>
       </c>
       <c r="I11">
-        <v>0.3951921315112882</v>
+        <v>0.4951094776699161</v>
       </c>
       <c r="J11">
-        <v>0.4122386168888342</v>
+        <v>0.4996500947639684</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1122,22 +1122,22 @@
         <v>138.461282</v>
       </c>
       <c r="O11">
-        <v>0.6847250097299556</v>
+        <v>0.6185519418990597</v>
       </c>
       <c r="P11">
-        <v>0.7586719313825014</v>
+        <v>0.704979911415303</v>
       </c>
       <c r="Q11">
-        <v>148.074371886696</v>
+        <v>275.6943047365518</v>
       </c>
       <c r="R11">
-        <v>1332.669346980264</v>
+        <v>2481.248742628966</v>
       </c>
       <c r="S11">
-        <v>0.2705979360942687</v>
+        <v>0.3062509288653558</v>
       </c>
       <c r="T11">
-        <v>0.3127538676655029</v>
+        <v>0.3522432795453502</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,7 +1151,7 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1160,46 +1160,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>3.208283999999999</v>
+        <v>5.973387666666667</v>
       </c>
       <c r="H12">
-        <v>9.624851999999999</v>
+        <v>17.920163</v>
       </c>
       <c r="I12">
-        <v>0.3951921315112882</v>
+        <v>0.4951094776699161</v>
       </c>
       <c r="J12">
-        <v>0.4122386168888342</v>
+        <v>0.4996500947639684</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>19.7096195</v>
+        <v>0.009315666666666667</v>
       </c>
       <c r="N12">
-        <v>39.419239</v>
+        <v>0.027947</v>
       </c>
       <c r="O12">
-        <v>0.2924067120202865</v>
+        <v>0.0001248484115599408</v>
       </c>
       <c r="P12">
-        <v>0.2159901291810835</v>
+        <v>0.000142293017222847</v>
       </c>
       <c r="Q12">
-        <v>63.23405688793799</v>
+        <v>0.05564608837344445</v>
       </c>
       <c r="R12">
-        <v>379.4043413276279</v>
+        <v>0.500814795361</v>
       </c>
       <c r="S12">
-        <v>0.1155568317915044</v>
+        <v>6.181363183536101E-05</v>
       </c>
       <c r="T12">
-        <v>0.08903947211525047</v>
+        <v>7.109671953964649E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,7 +1213,7 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1222,46 +1222,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>3.208283999999999</v>
+        <v>5.973387666666667</v>
       </c>
       <c r="H13">
-        <v>9.624851999999999</v>
+        <v>17.920163</v>
       </c>
       <c r="I13">
-        <v>0.3951921315112882</v>
+        <v>0.4951094776699161</v>
       </c>
       <c r="J13">
-        <v>0.4122386168888342</v>
+        <v>0.4996500947639684</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.030318</v>
+        <v>27.4428835</v>
       </c>
       <c r="N13">
-        <v>0.09095399999999999</v>
+        <v>54.885767</v>
       </c>
       <c r="O13">
-        <v>0.0004497898447522563</v>
+        <v>0.3677890736321797</v>
       </c>
       <c r="P13">
-        <v>0.000498364928088446</v>
+        <v>0.2794525848577725</v>
       </c>
       <c r="Q13">
-        <v>0.09726875431199998</v>
+        <v>163.9269818366702</v>
       </c>
       <c r="R13">
-        <v>0.8754187888079998</v>
+        <v>983.5618910200211</v>
       </c>
       <c r="S13">
-        <v>0.0001777534074797756</v>
+        <v>0.1820958561387308</v>
       </c>
       <c r="T13">
-        <v>0.0002054452686610843</v>
+        <v>0.139628510506222</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.0070985</v>
+        <v>0.3289195</v>
       </c>
       <c r="H14">
-        <v>2.014197</v>
+        <v>0.657839</v>
       </c>
       <c r="I14">
-        <v>0.1240530460697436</v>
+        <v>0.02726278134419591</v>
       </c>
       <c r="J14">
-        <v>0.08626935618559531</v>
+        <v>0.01834187103596291</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.511114</v>
+        <v>1.009860666666667</v>
       </c>
       <c r="N14">
-        <v>4.533342</v>
+        <v>3.029582</v>
       </c>
       <c r="O14">
-        <v>0.02241848840500565</v>
+        <v>0.01353413605720072</v>
       </c>
       <c r="P14">
-        <v>0.02483957450832654</v>
+        <v>0.01542521070970148</v>
       </c>
       <c r="Q14">
-        <v>1.521840642729</v>
+        <v>0.3321628655496667</v>
       </c>
       <c r="R14">
-        <v>9.131043856374001</v>
+        <v>1.992977193298</v>
       </c>
       <c r="S14">
-        <v>0.002781081774920178</v>
+        <v>0.0003689781920100611</v>
       </c>
       <c r="T14">
-        <v>0.002142894100757456</v>
+        <v>0.0002829272255398984</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.0070985</v>
+        <v>0.3289195</v>
       </c>
       <c r="H15">
-        <v>2.014197</v>
+        <v>0.657839</v>
       </c>
       <c r="I15">
-        <v>0.1240530460697436</v>
+        <v>0.02726278134419591</v>
       </c>
       <c r="J15">
-        <v>0.08626935618559531</v>
+        <v>0.01834187103596291</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1370,22 +1370,22 @@
         <v>138.461282</v>
       </c>
       <c r="O15">
-        <v>0.6847250097299556</v>
+        <v>0.6185519418990597</v>
       </c>
       <c r="P15">
-        <v>0.7586719313825014</v>
+        <v>0.704979911415303</v>
       </c>
       <c r="Q15">
-        <v>46.481383136759</v>
+        <v>15.18087188159966</v>
       </c>
       <c r="R15">
-        <v>278.888298820554</v>
+        <v>91.08523128959798</v>
       </c>
       <c r="S15">
-        <v>0.08494222317713582</v>
+        <v>0.01686344634202184</v>
       </c>
       <c r="T15">
-        <v>0.06545013907645054</v>
+        <v>0.01293065061812404</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,7 +1399,7 @@
         <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E16">
         <v>2</v>
@@ -1408,46 +1408,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.0070985</v>
+        <v>0.3289195</v>
       </c>
       <c r="H16">
-        <v>2.014197</v>
+        <v>0.657839</v>
       </c>
       <c r="I16">
-        <v>0.1240530460697436</v>
+        <v>0.02726278134419591</v>
       </c>
       <c r="J16">
-        <v>0.08626935618559531</v>
+        <v>0.01834187103596291</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>19.7096195</v>
+        <v>0.009315666666666667</v>
       </c>
       <c r="N16">
-        <v>39.419239</v>
+        <v>0.027947</v>
       </c>
       <c r="O16">
-        <v>0.2924067120202865</v>
+        <v>0.0001248484115599408</v>
       </c>
       <c r="P16">
-        <v>0.2159901291810835</v>
+        <v>0.000142293017222847</v>
       </c>
       <c r="Q16">
-        <v>19.84952823402075</v>
+        <v>0.003064104422166666</v>
       </c>
       <c r="R16">
-        <v>79.39811293608301</v>
+        <v>0.018384626533</v>
       </c>
       <c r="S16">
-        <v>0.03627394331735484</v>
+        <v>3.403714945528847E-06</v>
       </c>
       <c r="T16">
-        <v>0.01863332938689563</v>
+        <v>2.609920171219508E-06</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,7 +1461,7 @@
         <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E17">
         <v>2</v>
@@ -1470,46 +1470,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.0070985</v>
+        <v>0.3289195</v>
       </c>
       <c r="H17">
-        <v>2.014197</v>
+        <v>0.657839</v>
       </c>
       <c r="I17">
-        <v>0.1240530460697436</v>
+        <v>0.02726278134419591</v>
       </c>
       <c r="J17">
-        <v>0.08626935618559531</v>
+        <v>0.01834187103596291</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>0.030318</v>
+        <v>27.4428835</v>
       </c>
       <c r="N17">
-        <v>0.09095399999999999</v>
+        <v>54.885767</v>
       </c>
       <c r="O17">
-        <v>0.0004497898447522563</v>
+        <v>0.3677890736321797</v>
       </c>
       <c r="P17">
-        <v>0.000498364928088446</v>
+        <v>0.2794525848577725</v>
       </c>
       <c r="Q17">
-        <v>0.030533212323</v>
+        <v>9.02649951937825</v>
       </c>
       <c r="R17">
-        <v>0.183199273938</v>
+        <v>36.105998077513</v>
       </c>
       <c r="S17">
-        <v>5.579780033275447E-05</v>
+        <v>0.01002695309521848</v>
       </c>
       <c r="T17">
-        <v>4.299362149167074E-05</v>
+        <v>0.005125683272127744</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>3.016221666666667</v>
+        <v>5.144583</v>
       </c>
       <c r="H18">
-        <v>9.048665</v>
+        <v>15.433749</v>
       </c>
       <c r="I18">
-        <v>0.3715341502063192</v>
+        <v>0.4264132756983622</v>
       </c>
       <c r="J18">
-        <v>0.3875601561759498</v>
+        <v>0.4303238843538031</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1550,28 +1550,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>1.511114</v>
+        <v>1.009860666666667</v>
       </c>
       <c r="N18">
-        <v>4.533342</v>
+        <v>3.029582</v>
       </c>
       <c r="O18">
-        <v>0.02241848840500565</v>
+        <v>0.01353413605720072</v>
       </c>
       <c r="P18">
-        <v>0.02483957450832654</v>
+        <v>0.01542521070970148</v>
       </c>
       <c r="Q18">
-        <v>4.557854787603334</v>
+        <v>5.195312018102</v>
       </c>
       <c r="R18">
-        <v>41.02069308843</v>
+        <v>46.757808162918</v>
       </c>
       <c r="S18">
-        <v>0.008329234038463994</v>
+        <v>0.005771135289898276</v>
       </c>
       <c r="T18">
-        <v>0.009626829375791176</v>
+        <v>0.006637836589574625</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>3.016221666666667</v>
+        <v>5.144583</v>
       </c>
       <c r="H19">
-        <v>9.048665</v>
+        <v>15.433749</v>
       </c>
       <c r="I19">
-        <v>0.3715341502063192</v>
+        <v>0.4264132756983622</v>
       </c>
       <c r="J19">
-        <v>0.3875601561759498</v>
+        <v>0.4303238843538031</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1618,22 +1618,22 @@
         <v>138.461282</v>
       </c>
       <c r="O19">
-        <v>0.6847250097299556</v>
+        <v>0.6185519418990597</v>
       </c>
       <c r="P19">
-        <v>0.7586719313825014</v>
+        <v>0.704979911415303</v>
       </c>
       <c r="Q19">
-        <v>139.2099729209478</v>
+        <v>237.441852511802</v>
       </c>
       <c r="R19">
-        <v>1252.88975628853</v>
+        <v>2136.976672606218</v>
       </c>
       <c r="S19">
-        <v>0.2543987246150327</v>
+        <v>0.263758759734761</v>
       </c>
       <c r="T19">
-        <v>0.2940310122129117</v>
+        <v>0.3033696938716333</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1647,7 +1647,7 @@
         <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E20">
         <v>3</v>
@@ -1656,46 +1656,46 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>3.016221666666667</v>
+        <v>5.144583</v>
       </c>
       <c r="H20">
-        <v>9.048665</v>
+        <v>15.433749</v>
       </c>
       <c r="I20">
-        <v>0.3715341502063192</v>
+        <v>0.4264132756983622</v>
       </c>
       <c r="J20">
-        <v>0.3875601561759498</v>
+        <v>0.4303238843538031</v>
       </c>
       <c r="K20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L20">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M20">
-        <v>19.7096195</v>
+        <v>0.009315666666666667</v>
       </c>
       <c r="N20">
-        <v>39.419239</v>
+        <v>0.027947</v>
       </c>
       <c r="O20">
-        <v>0.2924067120202865</v>
+        <v>0.0001248484115599408</v>
       </c>
       <c r="P20">
-        <v>0.2159901291810835</v>
+        <v>0.000142293017222847</v>
       </c>
       <c r="Q20">
-        <v>59.44858137765583</v>
+        <v>0.047925220367</v>
       </c>
       <c r="R20">
-        <v>356.691488265935</v>
+        <v>0.431326983303</v>
       </c>
       <c r="S20">
-        <v>0.108639079265081</v>
+        <v>5.323702013901163E-05</v>
       </c>
       <c r="T20">
-        <v>0.08370916819788428</v>
+        <v>6.123208388775814E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1709,7 +1709,7 @@
         <v>26</v>
       </c>
       <c r="D21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E21">
         <v>3</v>
@@ -1718,46 +1718,46 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>3.016221666666667</v>
+        <v>5.144583</v>
       </c>
       <c r="H21">
-        <v>9.048665</v>
+        <v>15.433749</v>
       </c>
       <c r="I21">
-        <v>0.3715341502063192</v>
+        <v>0.4264132756983622</v>
       </c>
       <c r="J21">
-        <v>0.3875601561759498</v>
+        <v>0.4303238843538031</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M21">
-        <v>0.030318</v>
+        <v>27.4428835</v>
       </c>
       <c r="N21">
-        <v>0.09095399999999999</v>
+        <v>54.885767</v>
       </c>
       <c r="O21">
-        <v>0.0004497898447522563</v>
+        <v>0.3677890736321797</v>
       </c>
       <c r="P21">
-        <v>0.000498364928088446</v>
+        <v>0.2794525848577725</v>
       </c>
       <c r="Q21">
-        <v>0.09144580848999999</v>
+        <v>141.1821919250805</v>
       </c>
       <c r="R21">
-        <v>0.82301227641</v>
+        <v>847.0931515504831</v>
       </c>
       <c r="S21">
-        <v>0.0001671122877414618</v>
+        <v>0.1568301436535638</v>
       </c>
       <c r="T21">
-        <v>0.0001931463893625741</v>
+        <v>0.1202551218087075</v>
       </c>
     </row>
   </sheetData>
